--- a/03-Pandas/dataartwork_data_colores.xlsx
+++ b/03-Pandas/dataartwork_data_colores.xlsx
@@ -14,9 +14,261 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>artist</t>
+  </si>
+  <si>
+    <t>Gill, Eric</t>
+  </si>
+  <si>
+    <t>Paolozzi, Sir Eduardo</t>
+  </si>
+  <si>
+    <t>Wols</t>
+  </si>
+  <si>
+    <t>Jones, Allen</t>
+  </si>
+  <si>
+    <t>Piper, John</t>
+  </si>
+  <si>
+    <t>Pissarro, Lucien</t>
+  </si>
+  <si>
+    <t>Tilson, Joe</t>
+  </si>
+  <si>
+    <t>House, Gordon</t>
+  </si>
+  <si>
+    <t>Winner, Gerd</t>
+  </si>
+  <si>
+    <t>Pasmore, Victor</t>
+  </si>
+  <si>
+    <t>Tyson, Ian</t>
+  </si>
+  <si>
+    <t>Collins, Cecil</t>
+  </si>
+  <si>
+    <t>Nicholson, Sir William</t>
+  </si>
+  <si>
+    <t>Rothenstein, Sir William</t>
+  </si>
+  <si>
+    <t>Kokoschka, Oskar</t>
+  </si>
+  <si>
+    <t>Fry, Roger</t>
+  </si>
+  <si>
+    <t>Frost, Sir Terry</t>
+  </si>
+  <si>
+    <t>Mordmüller, Rainer G</t>
+  </si>
+  <si>
+    <t>Stephenson, Ian</t>
+  </si>
+  <si>
+    <t>Palmer, Roger</t>
+  </si>
+  <si>
+    <t>Nash, John</t>
+  </si>
+  <si>
+    <t>Valoch, Jiri</t>
+  </si>
+  <si>
+    <t>Brus, Günter</t>
+  </si>
+  <si>
+    <t>Ayrton, Michael</t>
+  </si>
+  <si>
+    <t>Hodgkin, Howard</t>
+  </si>
+  <si>
+    <t>Manessier, Alfred</t>
+  </si>
+  <si>
+    <t>Vasarely, Victor</t>
+  </si>
+  <si>
+    <t>Hayter, Stanley William</t>
+  </si>
+  <si>
+    <t>Neiland, Brendan</t>
+  </si>
+  <si>
+    <t>Thomkins, André</t>
+  </si>
+  <si>
+    <t>Blake, Peter</t>
+  </si>
+  <si>
+    <t>Illes, Arpad</t>
+  </si>
+  <si>
+    <t>Pomodoro, Gio</t>
+  </si>
+  <si>
+    <t>Götz, Professor Karl-Otto</t>
+  </si>
+  <si>
+    <t>Benrath, Frédéric</t>
+  </si>
+  <si>
+    <t>Loker, John</t>
+  </si>
+  <si>
+    <t>Sutherland, Graham, OM</t>
+  </si>
+  <si>
+    <t>Guston, Philip</t>
+  </si>
+  <si>
+    <t>Benjamin, Anthony</t>
+  </si>
+  <si>
+    <t>Baselitz, Georg</t>
+  </si>
+  <si>
+    <t>Art &amp; Language (Michael Baldwin, born 1945; Mel Ramsden, born 1944)</t>
+  </si>
+  <si>
+    <t>Hamilton Finlay, Ian</t>
+  </si>
+  <si>
+    <t>Soulages, Pierre</t>
+  </si>
+  <si>
+    <t>Irvin, Albert</t>
+  </si>
+  <si>
+    <t>Lindström, Bengt</t>
+  </si>
+  <si>
+    <t>Wunderlich, Paul</t>
+  </si>
+  <si>
+    <t>Stezaker, John</t>
+  </si>
+  <si>
+    <t>Braque, Georges</t>
+  </si>
+  <si>
+    <t>Wentworth, Richard</t>
+  </si>
+  <si>
+    <t>Laabs, Hans</t>
+  </si>
+  <si>
+    <t>Baumeister, Willi</t>
+  </si>
+  <si>
+    <t>Cuixart, Modestos</t>
+  </si>
+  <si>
+    <t>King, Ronald</t>
+  </si>
+  <si>
+    <t>Murphy, John</t>
+  </si>
+  <si>
+    <t>Salt, John</t>
+  </si>
+  <si>
+    <t>Matisse, Henri</t>
+  </si>
+  <si>
+    <t>Schneider, Gerard</t>
+  </si>
+  <si>
+    <t>Appel, Karel</t>
+  </si>
+  <si>
+    <t>Le Parc, Julio</t>
+  </si>
+  <si>
+    <t>Grayson, Roy</t>
+  </si>
+  <si>
+    <t>Kunkel, Don</t>
+  </si>
+  <si>
+    <t>Park, Alistair</t>
+  </si>
+  <si>
+    <t>Frohner, Adolf</t>
+  </si>
+  <si>
+    <t>Rainer, Arnulf</t>
+  </si>
+  <si>
+    <t>Ackroyd, Norman</t>
+  </si>
+  <si>
+    <t>Beuys, Joseph</t>
+  </si>
+  <si>
+    <t>Nevinson, Christopher Richard Wynne</t>
+  </si>
+  <si>
+    <t>Dine, Jim</t>
+  </si>
+  <si>
+    <t>London Gallery</t>
+  </si>
+  <si>
+    <t>Cutts, Simon</t>
+  </si>
+  <si>
+    <t>Spencer, Sir Stanley</t>
+  </si>
+  <si>
+    <t>Abrahams, Ivor</t>
+  </si>
+  <si>
+    <t>Bird, John</t>
+  </si>
+  <si>
+    <t>Maccari, Mino</t>
+  </si>
+  <si>
+    <t>Blake, John</t>
+  </si>
+  <si>
+    <t>Herring, Ed</t>
+  </si>
+  <si>
+    <t>Lattanzi, Luciano</t>
+  </si>
+  <si>
+    <t>Tamayo, Rufino</t>
+  </si>
+  <si>
+    <t>Phillips, Esq Tom</t>
+  </si>
+  <si>
+    <t>Trevelyan, Julian</t>
+  </si>
+  <si>
+    <t>Rocamora, Jaume</t>
+  </si>
+  <si>
+    <t>Downsbrough, Peter</t>
+  </si>
+  <si>
+    <t>Disler, Martin</t>
+  </si>
+  <si>
+    <t>Fabro, Luciano</t>
   </si>
 </sst>
 </file>
@@ -374,19 +626,691 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B2">
+  <conditionalFormatting sqref="B2:B85">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="percentile" val="10"/>
